--- a/students.xlsx
+++ b/students.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t xml:space="preserve">刘志远</t>
   </si>
@@ -236,16 +236,41 @@
   </si>
   <si>
     <t xml:space="preserve">202326202036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">葛天润</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202325404001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周佳玲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202326206017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">谭海华</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202326401042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宋欢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202126202103</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +292,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -317,12 +349,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -518,303 +562,337 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.68"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t xml:space="preserve">刘志远</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t xml:space="preserve">202126202103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘俊豪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202326205006</t>
   </si>
 </sst>
 </file>
@@ -562,13 +568,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.68"/>
   </cols>
@@ -886,11 +892,19 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/students.xlsx
+++ b/students.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t xml:space="preserve">刘志远</t>
   </si>
@@ -262,10 +262,124 @@
     <t xml:space="preserve">202126202103</t>
   </si>
   <si>
+    <t xml:space="preserve">薛伟杰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乔守硕</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘馨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张顺凯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">齐艳霞</t>
+  </si>
+  <si>
     <t xml:space="preserve">刘俊豪</t>
   </si>
   <si>
-    <t xml:space="preserve">202326205006</t>
+    <t xml:space="preserve">余就甫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邓宇良</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡旭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李永康</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吴小雨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卢琪颖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">郭振豪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文心怡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">欧阳予晨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">淦林林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">皮敏杰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈丽萍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">谢树荟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">马溶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈豪祥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李伟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">易晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">汤子盛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">晏经岩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">丁利鹏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨鹏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李国才</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蔡俊文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邓战</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄佳蓉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邓美欣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡阳俊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吴君仪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王轩宇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">谭正扬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">余锡睿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吴俊宇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">韩周宇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张换换</t>
   </si>
 </sst>
 </file>
@@ -309,7 +423,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Noto Sans CJK SC"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -355,13 +469,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -369,11 +483,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -568,15 +686,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -899,14 +1018,407 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="n">
+        <v>202326205001</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
+      <c r="B42" s="5" t="n">
+        <v>202326205002</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="5" t="n">
+        <v>202326205003</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="5" t="n">
+        <v>202326205004</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="5" t="n">
+        <v>202326205005</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="5" t="n">
+        <v>202326205006</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="5" t="n">
+        <v>202326205007</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="5" t="n">
+        <v>202326205008</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="5" t="n">
+        <v>202326205009</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="5" t="n">
+        <v>202326205010</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>202326205011</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="5" t="n">
+        <v>202326205012</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="5" t="n">
+        <v>202326205013</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="5" t="n">
+        <v>202326205014</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="5" t="n">
+        <v>202326205015</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="5" t="n">
+        <v>202326205016</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="5" t="n">
+        <v>202326205017</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="5" t="n">
+        <v>202326205018</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="5" t="n">
+        <v>202326205019</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="5" t="n">
+        <v>202326205020</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="5" t="n">
+        <v>202326205021</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="5" t="n">
+        <v>202326205022</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="5" t="n">
+        <v>202326205023</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="5" t="n">
+        <v>202326205024</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" s="5" t="n">
+        <v>202326205025</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" s="5" t="n">
+        <v>202326205026</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67" s="5" t="n">
+        <v>202326205027</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" s="5" t="n">
+        <v>202326205028</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="5" t="n">
+        <v>202326205029</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="5" t="n">
+        <v>202326205030</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="5" t="n">
+        <v>202326205031</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" s="5" t="n">
+        <v>202326205032</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="5" t="n">
+        <v>202326205033</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="5" t="n">
+        <v>202326205034</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" s="5" t="n">
+        <v>202326205035</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="5" t="n">
+        <v>202326205036</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="5" t="n">
+        <v>202326205037</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="5" t="n">
+        <v>202326205038</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="5" t="n">
+        <v>202326205039</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" s="5" t="n">
+        <v>202326205040</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t xml:space="preserve">刘志远</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t xml:space="preserve">张换换</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张晴雨</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,7 +426,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DejaVu Sans"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -469,13 +478,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -486,12 +499,20 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -688,314 +709,314 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D75" activeCellId="0" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="22.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1003,15 +1024,15 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1019,404 +1040,412 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="5" t="n">
+      <c r="B41" s="6" t="n">
         <v>202326205001</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="5" t="n">
+      <c r="B42" s="6" t="n">
         <v>202326205002</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="5" t="n">
+      <c r="B43" s="6" t="n">
         <v>202326205003</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="5" t="n">
+      <c r="B44" s="6" t="n">
         <v>202326205004</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="5" t="n">
+      <c r="B45" s="6" t="n">
         <v>202326205005</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="5" t="n">
+      <c r="B46" s="6" t="n">
         <v>202326205006</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="5" t="n">
+      <c r="B47" s="6" t="n">
         <v>202326205007</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="5" t="n">
+      <c r="B48" s="6" t="n">
         <v>202326205008</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="5" t="n">
+      <c r="B49" s="6" t="n">
         <v>202326205009</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="5" t="n">
+      <c r="B50" s="6" t="n">
         <v>202326205010</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="5" t="n">
+      <c r="B51" s="6" t="n">
         <v>202326205011</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="5" t="n">
+      <c r="B52" s="6" t="n">
         <v>202326205012</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="5" t="n">
+      <c r="B53" s="6" t="n">
         <v>202326205013</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="5" t="n">
+      <c r="B54" s="6" t="n">
         <v>202326205014</v>
       </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="5" t="n">
+      <c r="B55" s="6" t="n">
         <v>202326205015</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="5" t="n">
+      <c r="B56" s="6" t="n">
         <v>202326205016</v>
       </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="5" t="n">
+      <c r="B57" s="6" t="n">
         <v>202326205017</v>
       </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="5" t="n">
+      <c r="B58" s="6" t="n">
         <v>202326205018</v>
       </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="5" t="n">
+      <c r="B59" s="6" t="n">
         <v>202326205019</v>
       </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B60" s="5" t="n">
+      <c r="B60" s="6" t="n">
         <v>202326205020</v>
       </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B61" s="5" t="n">
+      <c r="B61" s="6" t="n">
         <v>202326205021</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B62" s="5" t="n">
+      <c r="B62" s="6" t="n">
         <v>202326205022</v>
       </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B63" s="5" t="n">
+      <c r="B63" s="6" t="n">
         <v>202326205023</v>
       </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B64" s="5" t="n">
+      <c r="B64" s="6" t="n">
         <v>202326205024</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B65" s="5" t="n">
+      <c r="B65" s="6" t="n">
         <v>202326205025</v>
       </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B66" s="5" t="n">
+      <c r="B66" s="6" t="n">
         <v>202326205026</v>
       </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B67" s="5" t="n">
+      <c r="B67" s="6" t="n">
         <v>202326205027</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B68" s="5" t="n">
+      <c r="B68" s="6" t="n">
         <v>202326205028</v>
       </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B69" s="5" t="n">
+      <c r="B69" s="6" t="n">
         <v>202326205029</v>
       </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B70" s="5" t="n">
+      <c r="B70" s="6" t="n">
         <v>202326205030</v>
       </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="5" t="n">
+      <c r="B71" s="6" t="n">
         <v>202326205031</v>
       </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B72" s="5" t="n">
+      <c r="B72" s="6" t="n">
         <v>202326205032</v>
       </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B73" s="5" t="n">
+      <c r="B73" s="6" t="n">
         <v>202326205033</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B74" s="5" t="n">
+      <c r="B74" s="6" t="n">
         <v>202326205034</v>
       </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B75" s="5" t="n">
+      <c r="B75" s="6" t="n">
         <v>202326205035</v>
       </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B76" s="5" t="n">
+      <c r="B76" s="6" t="n">
         <v>202326205036</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B77" s="5" t="n">
+      <c r="B77" s="6" t="n">
         <v>202326205037</v>
       </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="5" t="n">
+      <c r="B78" s="6" t="n">
         <v>202326205038</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="5" t="n">
+      <c r="B79" s="6" t="n">
         <v>202326205039</v>
       </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="5" t="n">
+      <c r="B80" s="6" t="n">
         <v>202326205040</v>
       </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="8" t="n">
+        <v>202426201009</v>
+      </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
